--- a/test_cases.xlsx
+++ b/test_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -96,25 +96,8 @@
   </si>
   <si>
     <t>1. The email is shown in "Email" field
-2. The username is shown in "Username"  field
-3. The dots are shown in "Password" field
-4. "username has already been taken" error message is shown above the signup form. The prompt alert with  "Please include an '@' in the email address. '&lt;email&gt;' is missing an '@'." error message is shown near "Email" field
-5. The prompt alert with  "Please include an '.' in the email address. '&lt;email&gt;' is missing an '.'." error message is shown near "Email" field
-6. The prompt alert with "A part following '@' should not contain the symbol '@'." error message is shown
-7.  The prompt alert with "A part following '.' should not contain the symbol '.'." error message is shown</t>
-  </si>
-  <si>
-    <t>1. The email is shown in "Email" field
 2. The dots are shown in "Password" field
 3. "email or password is invalid" error message is shown above the signin form</t>
-  </si>
-  <si>
-    <t>1. The email is shown in "Email" field
-2. The dots are shown in "Password" field
-3. The prompt alert with "Please include an '@' in the email address. '&lt;email&gt;' is missing an '@'." error message is shown near "Email" field
-4. The prompt alert with  "Please include an '.' in the email address. '&lt;email&gt;' is missing an '.'." error message is shown near "Email" field
-5. The prompt alert with "A part following '@' should not contain the symbol '@'." error message is shown
-6.  The prompt alert with "A part following '.' should not contain the symbol '.'." error message is shown</t>
   </si>
   <si>
     <t>1. Enter valid unregistered email in "Email" field
@@ -130,16 +113,6 @@
   <si>
     <t>unregistered email:
 de@gmail.com</t>
-  </si>
-  <si>
-    <t>Taken username: 
-ann_12345</t>
-  </si>
-  <si>
-    <t>Signin page is open (https://conduit.realworld.how/login)</t>
-  </si>
-  <si>
-    <t>Signup page is open (https://conduit.realworld.how/register)</t>
   </si>
   <si>
     <t>1. The email is shown in "Email" field
@@ -170,11 +143,6 @@
 2. The number of the likes of the chosen article decrease by 1</t>
   </si>
   <si>
-    <t>1. User is signed in
-2. Home page is open (https://conduit.realworld.how/)
-3. "Global feed" tab is chosen in the feed navigation</t>
-  </si>
-  <si>
     <t>Sign in (incorrect password)</t>
   </si>
   <si>
@@ -187,8 +155,33 @@
 anastasiiafortesting+conduitrealworld@gmail.com</t>
   </si>
   <si>
+    <t>"Like" button on the article preview (signed in)</t>
+  </si>
+  <si>
+    <t>1. Click random tag in "Popular Tags" box in the right sidebar
+2. Click another random tag in "Popular Tags" box</t>
+  </si>
+  <si>
+    <t>1. Only articles with the chosen tag are shown. The tab with the tag name is shown in the feed navigation
+2. Only articles with the newly chosen tag are shown.  The tab with old tag name disappeared. The tab with the new tag name is shown in the feed navigation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signin page is open </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signup page is open </t>
+  </si>
+  <si>
+    <t>Home page is open</t>
+  </si>
+  <si>
+    <t>1. User is signed in
+2. Home page is open 
+3. "Global feed" tab is chosen in the feed navigation</t>
+  </si>
+  <si>
     <t>1. Enter invalid email (without "@")  in "Email" field
-2. Enter username that is already registred in "Username" field
+2. Enter username in "Username" field
 3. Enter password  in "Password" field
 3. Click "Sign up" button
 4. Enter invalid email without "."  in "Email" field. Click "Sign up" button
@@ -196,25 +189,40 @@
 6. Enter invalid email with extra "."  in "Email" field. Click "Sign up" button</t>
   </si>
   <si>
-    <t>Home page is open (https://demo.realworld.io/#/)</t>
-  </si>
-  <si>
-    <t>"Like" button on the article preview (signed in)</t>
-  </si>
-  <si>
-    <t>1. Click random tag in "Popular Tags" box in the right sidebar
-2. Click another random tag in "Popular Tags" box</t>
-  </si>
-  <si>
-    <t>1. Only articles with the chosen tag are shown. The tab with the tag name is shown in the feed navigation
-2. Only articles with the newly chosen tag are shown.  The tab with old tag name disappeared. The tab with the new tag name is shown in the feed navigation</t>
+    <t>email:
+anastasiiafortesting+conduitrealworld@gmail.com
+username: ann_qwerty123
+password: 1234567890</t>
+  </si>
+  <si>
+    <t>1. The email is shown in "Email" field
+2. The dots are shown in "Password" field
+3. "Please include an '@' in the email address. '&lt;email&gt;' is missing an '@'." error message is shown near "Email" field
+4. "Please include an '.' in the email address. '&lt;email&gt;' is missing an '.'." error message is shown near "Email" field
+5. "A part following '@' should not contain the symbol '@'." error message is shown
+6. "A part following '.' should not contain the symbol '.'." error message is shown</t>
+  </si>
+  <si>
+    <t>1. The email is shown in "Email" field
+2. The username is shown in "Username"  field
+3. The dots are shown in "Password" field
+4.  "Please include an '@' in the email address. '&lt;email&gt;' is missing an '@'." error message is shown near "Email" field
+5. "Please include an '.' in the email address. '&lt;email&gt;' is missing an '.'." error message is shown near "Email" field
+6. "A part following '@' should not contain the symbol '@'." error message is shown
+7. "A part following '.' should not contain the symbol '.'." error message is shown</t>
+  </si>
+  <si>
+    <t>1. conduitrealworldgmail.com
+4. conduitrealworld@gmailcom
+5. conduitrealworld@gmai@l.com
+6. conduitrealworld@gmail.c.om</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,6 +254,21 @@
       <family val="3"/>
       <charset val="204"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -264,10 +287,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -276,9 +300,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -581,16 +611,16 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" customWidth="1"/>
     <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="46.42578125" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" customWidth="1"/>
     <col min="4" max="4" width="53" customWidth="1"/>
-    <col min="5" max="5" width="46.85546875" customWidth="1"/>
+    <col min="5" max="5" width="51.28515625" customWidth="1"/>
     <col min="6" max="6" width="59.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -622,16 +652,16 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -642,7 +672,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
@@ -652,7 +682,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -660,14 +690,16 @@
         <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="F4" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -678,16 +710,16 @@
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -695,19 +727,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -718,14 +750,16 @@
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="F7" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -736,17 +770,17 @@
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="5"/>
       <c r="F8" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -754,16 +788,16 @@
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -774,14 +808,14 @@
         <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -789,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -825,6 +859,9 @@
       <c r="D14" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1" display="1.anastasiiafortesting+conduitrealworld@gmail.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
